--- a/VerveStacks_IND/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
+++ b/VerveStacks_IND/SubRES_Tmpl/SubRES_New_RE_and_Conventional_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB65D116-CE0B-4A73-9EBA-1A2B1F6633DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C48DD9-DED7-479B-A74E-1DB16C47A208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVA" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -226,31 +226,43 @@
     <t>ELC_spv*</t>
   </si>
   <si>
-    <t>ELC_won*</t>
-  </si>
-  <si>
     <t>Trd_elec*</t>
   </si>
   <si>
     <t>solar</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
     <t>pset_ci</t>
   </si>
   <si>
-    <t>solar,wind,coal,gas,nuclear,hydro</t>
-  </si>
-  <si>
     <t>attrib_cond</t>
   </si>
   <si>
     <t>-pasti</t>
+  </si>
+  <si>
+    <t>solar,wind,coal,gas,nuclear,hydro,bioenergy</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>-life</t>
+  </si>
+  <si>
+    <t>coal,gas,nuclear,bioenergy</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>ELC_wo*</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C4:X48"/>
+  <dimension ref="C4:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1389,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>8.76</v>
@@ -1949,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
@@ -1960,7 +1972,7 @@
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
         <v>24</v>
@@ -1968,46 +1980,71 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>4</v>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="D48">
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49">
         <v>2025</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F48" t="s">
-        <v>68</v>
+      <c r="F50" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
